--- a/Code/Results/Cases/Case_2_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039034204028549</v>
+        <v>1.066970738207348</v>
       </c>
       <c r="D2">
-        <v>1.052675844790787</v>
+        <v>1.070036877672472</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.054849868468597</v>
+        <v>1.07865182360091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059695586440306</v>
+        <v>1.05298346427525</v>
       </c>
       <c r="J2">
-        <v>1.060106952124273</v>
+        <v>1.071918021215107</v>
       </c>
       <c r="K2">
-        <v>1.063447041557325</v>
+        <v>1.072737785842959</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.065594501236547</v>
+        <v>1.081329935659295</v>
       </c>
       <c r="N2">
-        <v>1.061612425592256</v>
+        <v>1.073440267755948</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.045449554995172</v>
+        <v>1.068253724991089</v>
       </c>
       <c r="D3">
-        <v>1.057870734629739</v>
+        <v>1.071091080070438</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.060817577600017</v>
+        <v>1.079898811873038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06211172305231</v>
+        <v>1.053392705478733</v>
       </c>
       <c r="J3">
-        <v>1.064773491720056</v>
+        <v>1.072855629750853</v>
       </c>
       <c r="K3">
-        <v>1.06781305780041</v>
+        <v>1.073607684049577</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.070727217214856</v>
+        <v>1.082393801327244</v>
       </c>
       <c r="N3">
-        <v>1.066285592209525</v>
+        <v>1.07437920780336</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.049490275976133</v>
+        <v>1.069083121575856</v>
       </c>
       <c r="D4">
-        <v>1.061145226359314</v>
+        <v>1.071772494408561</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.064582440178209</v>
+        <v>1.080705345145767</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063622908747004</v>
+        <v>1.053655888916688</v>
       </c>
       <c r="J4">
-        <v>1.067707481799641</v>
+        <v>1.073461014817454</v>
       </c>
       <c r="K4">
-        <v>1.070557710478015</v>
+        <v>1.074169237580649</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.073959222296396</v>
+        <v>1.083081274513331</v>
       </c>
       <c r="N4">
-        <v>1.069223748891557</v>
+        <v>1.074985452586195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05116382572517</v>
+        <v>1.069431616112836</v>
       </c>
       <c r="D5">
-        <v>1.062501954188279</v>
+        <v>1.072058789488358</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.066143141913357</v>
+        <v>1.081044330164534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064246204979007</v>
+        <v>1.053766143787549</v>
       </c>
       <c r="J5">
-        <v>1.068921355241584</v>
+        <v>1.073715207274682</v>
       </c>
       <c r="K5">
-        <v>1.071693144795943</v>
+        <v>1.07440499858878</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.075297568710322</v>
+        <v>1.083370070573069</v>
       </c>
       <c r="N5">
-        <v>1.070439346173021</v>
+        <v>1.075240006025868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.051443381409353</v>
+        <v>1.069490119198659</v>
       </c>
       <c r="D6">
-        <v>1.0627286159866</v>
+        <v>1.072106849695111</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.066403928080789</v>
+        <v>1.081101242532551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0643501688382</v>
+        <v>1.053784633377352</v>
       </c>
       <c r="J6">
-        <v>1.069124047270702</v>
+        <v>1.073757869110657</v>
       </c>
       <c r="K6">
-        <v>1.071882732598168</v>
+        <v>1.07444456542184</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.075521114244303</v>
+        <v>1.083418548006338</v>
       </c>
       <c r="N6">
-        <v>1.070642326048069</v>
+        <v>1.075282728446543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.049512735314496</v>
+        <v>1.069087778894908</v>
       </c>
       <c r="D7">
-        <v>1.061163431887683</v>
+        <v>1.071776320568747</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.064603379592316</v>
+        <v>1.080709874997467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063631283809322</v>
+        <v>1.053657363668702</v>
       </c>
       <c r="J7">
-        <v>1.067723777398965</v>
+        <v>1.073464412570366</v>
       </c>
       <c r="K7">
-        <v>1.070572953504396</v>
+        <v>1.074172389070317</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.073977184229544</v>
+        <v>1.083085134272775</v>
       </c>
       <c r="N7">
-        <v>1.069240067632501</v>
+        <v>1.074988855164305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.041225963440238</v>
+        <v>1.06740449345947</v>
       </c>
       <c r="D8">
-        <v>1.054450077412349</v>
+        <v>1.070393301703813</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.05688737573669</v>
+        <v>1.07907332347059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060523251872892</v>
+        <v>1.053122105969192</v>
       </c>
       <c r="J8">
-        <v>1.061702318485414</v>
+        <v>1.072235163099385</v>
       </c>
       <c r="K8">
-        <v>1.064939741846926</v>
+        <v>1.073032048362555</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.067348201682215</v>
+        <v>1.08168966575464</v>
       </c>
       <c r="N8">
-        <v>1.063210057556621</v>
+        <v>1.073757860018079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025715542335063</v>
+        <v>1.064432192794945</v>
       </c>
       <c r="D9">
-        <v>1.041908042509195</v>
+        <v>1.067950598371751</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.042497295299223</v>
+        <v>1.076186701952599</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054622388344741</v>
+        <v>1.052166433831301</v>
       </c>
       <c r="J9">
-        <v>1.050391792301197</v>
+        <v>1.070058930303432</v>
       </c>
       <c r="K9">
-        <v>1.054355908726586</v>
+        <v>1.071012354709842</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.054936558751579</v>
+        <v>1.07922352729879</v>
       </c>
       <c r="N9">
-        <v>1.051883469127887</v>
+        <v>1.071578536721938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01466865845849</v>
+        <v>1.062446320985135</v>
       </c>
       <c r="D10">
-        <v>1.032996486667323</v>
+        <v>1.066318198587601</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.032288287970899</v>
+        <v>1.074260233941584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050366026425315</v>
+        <v>1.05152085783055</v>
       </c>
       <c r="J10">
-        <v>1.042312138623922</v>
+        <v>1.068601146690097</v>
       </c>
       <c r="K10">
-        <v>1.046794484868047</v>
+        <v>1.069658859786115</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.046098053040712</v>
+        <v>1.077574480908121</v>
       </c>
       <c r="N10">
-        <v>1.043792341415642</v>
+        <v>1.070118682888662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009693131760268</v>
+        <v>1.061585339766081</v>
       </c>
       <c r="D11">
-        <v>1.028989052255436</v>
+        <v>1.065610388511377</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.027700774049386</v>
+        <v>1.073425527344039</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048437000082799</v>
+        <v>1.051239293263149</v>
       </c>
       <c r="J11">
-        <v>1.038668151799958</v>
+        <v>1.067968226015355</v>
       </c>
       <c r="K11">
-        <v>1.043384229441425</v>
+        <v>1.069071084114488</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.042118541919915</v>
+        <v>1.076859216352319</v>
       </c>
       <c r="N11">
-        <v>1.040143179712416</v>
+        <v>1.069484863393964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007813769909377</v>
+        <v>1.061265365683326</v>
       </c>
       <c r="D12">
-        <v>1.027476434712155</v>
+        <v>1.065347327836501</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.025969678637024</v>
+        <v>1.073115396698421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047706641724781</v>
+        <v>1.051134401819372</v>
       </c>
       <c r="J12">
-        <v>1.037291079299091</v>
+        <v>1.067732874136901</v>
       </c>
       <c r="K12">
-        <v>1.04209550559035</v>
+        <v>1.068852499507622</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.040615698205422</v>
+        <v>1.076593349423566</v>
       </c>
       <c r="N12">
-        <v>1.038764151610646</v>
+        <v>1.069249177288848</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008218353388566</v>
+        <v>1.06133400884994</v>
       </c>
       <c r="D13">
-        <v>1.027802015919413</v>
+        <v>1.065403762008165</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.026342264897312</v>
+        <v>1.073181924604732</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047863947740212</v>
+        <v>1.051156915252922</v>
       </c>
       <c r="J13">
-        <v>1.037587559993022</v>
+        <v>1.067783369589104</v>
       </c>
       <c r="K13">
-        <v>1.042372963728906</v>
+        <v>1.068899398390177</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.040939210676951</v>
+        <v>1.076650387240388</v>
       </c>
       <c r="N13">
-        <v>1.039061053341169</v>
+        <v>1.069299744450385</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009538434780843</v>
+        <v>1.061558894046398</v>
       </c>
       <c r="D14">
-        <v>1.028864520741485</v>
+        <v>1.065588646879111</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.027558246136774</v>
+        <v>1.073399893569844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048376916231941</v>
+        <v>1.051230629150918</v>
       </c>
       <c r="J14">
-        <v>1.038554813015356</v>
+        <v>1.067948777014626</v>
       </c>
       <c r="K14">
-        <v>1.043278161571643</v>
+        <v>1.069053021132331</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.041994830771572</v>
+        <v>1.076837243517516</v>
       </c>
       <c r="N14">
-        <v>1.04002967997374</v>
+        <v>1.069465386773423</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010347567211086</v>
+        <v>1.061697430939613</v>
       </c>
       <c r="D15">
-        <v>1.0295159191776</v>
+        <v>1.065702540790619</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.028303799113708</v>
+        <v>1.073534180285078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048691111192407</v>
+        <v>1.05127600614758</v>
       </c>
       <c r="J15">
-        <v>1.039147597671352</v>
+        <v>1.068050655850765</v>
       </c>
       <c r="K15">
-        <v>1.043832918854048</v>
+        <v>1.069147638834459</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.042641906724508</v>
+        <v>1.076952347121778</v>
       </c>
       <c r="N15">
-        <v>1.040623306451941</v>
+        <v>1.069567410289196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014994623641057</v>
+        <v>1.062503438240475</v>
       </c>
       <c r="D16">
-        <v>1.033259170076212</v>
+        <v>1.066365152937118</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.032589062360644</v>
+        <v>1.074315619150292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05049216208153</v>
+        <v>1.051539501535894</v>
       </c>
       <c r="J16">
-        <v>1.042550774197264</v>
+        <v>1.068643115677784</v>
       </c>
       <c r="K16">
-        <v>1.04701781572395</v>
+        <v>1.06969783240805</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.046358801765347</v>
+        <v>1.077621924769208</v>
       </c>
       <c r="N16">
-        <v>1.04403131587887</v>
+        <v>1.070160711477126</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.017856566978433</v>
+        <v>1.063008731700154</v>
       </c>
       <c r="D17">
-        <v>1.035566236257876</v>
+        <v>1.066780530354065</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.035231047797498</v>
+        <v>1.074805649991491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051598276593174</v>
+        <v>1.051704241813211</v>
       </c>
       <c r="J17">
-        <v>1.044645425552008</v>
+        <v>1.069014295339413</v>
       </c>
       <c r="K17">
-        <v>1.048978131044855</v>
+        <v>1.07004249638976</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.048648315523982</v>
+        <v>1.078041605275866</v>
       </c>
       <c r="N17">
-        <v>1.046128941878797</v>
+        <v>1.070532418256449</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019507522645475</v>
+        <v>1.063303356366738</v>
       </c>
       <c r="D18">
-        <v>1.036897691307091</v>
+        <v>1.067022719550443</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.036756111725335</v>
+        <v>1.075091425468398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05223522393583</v>
+        <v>1.051800136659307</v>
       </c>
       <c r="J18">
-        <v>1.045853289878946</v>
+        <v>1.06923063522377</v>
       </c>
       <c r="K18">
-        <v>1.050108530698416</v>
+        <v>1.070243368881202</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.049969177821255</v>
+        <v>1.078286280639664</v>
       </c>
       <c r="N18">
-        <v>1.047338521511623</v>
+        <v>1.070749065368256</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.020067407979671</v>
+        <v>1.063403798173076</v>
       </c>
       <c r="D19">
-        <v>1.037349321423054</v>
+        <v>1.067105284043581</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.037273469259599</v>
+        <v>1.075188858933012</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052451036620019</v>
+        <v>1.051832801229262</v>
       </c>
       <c r="J19">
-        <v>1.046262829139479</v>
+        <v>1.069304373985883</v>
       </c>
       <c r="K19">
-        <v>1.050491804025671</v>
+        <v>1.070311833441339</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.0504171370788</v>
+        <v>1.078369688832313</v>
       </c>
       <c r="N19">
-        <v>1.04774864236488</v>
+        <v>1.070822908847869</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017551423616951</v>
+        <v>1.062954529330654</v>
       </c>
       <c r="D20">
-        <v>1.035320192481245</v>
+        <v>1.066735973972424</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.034949252552431</v>
+        <v>1.074753079643388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051480458581232</v>
+        <v>1.051686586959753</v>
       </c>
       <c r="J20">
-        <v>1.044422139681076</v>
+        <v>1.068974488149763</v>
       </c>
       <c r="K20">
-        <v>1.048769165092601</v>
+        <v>1.070005534208099</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.048404191926667</v>
+        <v>1.077996589672506</v>
       </c>
       <c r="N20">
-        <v>1.045905338916317</v>
+        <v>1.070492554536023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009150586077838</v>
+        <v>1.061492675614078</v>
       </c>
       <c r="D21">
-        <v>1.028552319156537</v>
+        <v>1.06553420701406</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.027200934952481</v>
+        <v>1.073335709472872</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048226249455245</v>
+        <v>1.051208930699293</v>
       </c>
       <c r="J21">
-        <v>1.038270645181989</v>
+        <v>1.067900075767521</v>
       </c>
       <c r="K21">
-        <v>1.043012224093718</v>
+        <v>1.069007790222194</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.041684673434781</v>
+        <v>1.076782224155422</v>
       </c>
       <c r="N21">
-        <v>1.039745108589455</v>
+        <v>1.069416616364961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003686592837638</v>
+        <v>1.060572579979888</v>
       </c>
       <c r="D22">
-        <v>1.024156775309713</v>
+        <v>1.064777747903295</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.022171375439926</v>
+        <v>1.072444068110515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04609964377215</v>
+        <v>1.050906839103629</v>
       </c>
       <c r="J22">
-        <v>1.034265825986531</v>
+        <v>1.067223061905572</v>
       </c>
       <c r="K22">
-        <v>1.039264405340463</v>
+        <v>1.068378971765368</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.03731604724335</v>
+        <v>1.07601762770704</v>
       </c>
       <c r="N22">
-        <v>1.035734602091381</v>
+        <v>1.068738641065675</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00660127446475</v>
+        <v>1.061060433459628</v>
       </c>
       <c r="D23">
-        <v>1.026500868726783</v>
+        <v>1.06517884367548</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>1.024853334533734</v>
+        <v>1.072916791108263</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047234964794876</v>
+        <v>1.051067151852058</v>
       </c>
       <c r="J23">
-        <v>1.03640246609113</v>
+        <v>1.067582101808917</v>
       </c>
       <c r="K23">
-        <v>1.041263911573796</v>
+        <v>1.06871246312632</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.039646216580427</v>
+        <v>1.076423057825709</v>
       </c>
       <c r="N23">
-        <v>1.037874276470003</v>
+        <v>1.069098190846864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017689361353332</v>
+        <v>1.062979021370911</v>
       </c>
       <c r="D24">
-        <v>1.035431412880954</v>
+        <v>1.066756107371996</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.035076632871259</v>
+        <v>1.074776834079021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051533720836578</v>
+        <v>1.051694565031709</v>
       </c>
       <c r="J24">
-        <v>1.044523075817525</v>
+        <v>1.068992475808626</v>
       </c>
       <c r="K24">
-        <v>1.048863627929426</v>
+        <v>1.070022236334184</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.048514545773062</v>
+        <v>1.078016930647963</v>
       </c>
       <c r="N24">
-        <v>1.046006418393657</v>
+        <v>1.070510567739425</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02984229056534</v>
+        <v>1.065201352768578</v>
       </c>
       <c r="D25">
-        <v>1.045241794229646</v>
+        <v>1.068582778715761</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.046319487187718</v>
+        <v>1.076933312610243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0562017855453</v>
+        <v>1.05241498414026</v>
       </c>
       <c r="J25">
-        <v>1.053405452444041</v>
+        <v>1.070622754995698</v>
       </c>
       <c r="K25">
-        <v>1.057176159220461</v>
+        <v>1.071535723946969</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.058238919584683</v>
+        <v>1.079861945318173</v>
       </c>
       <c r="N25">
-        <v>1.054901409013806</v>
+        <v>1.072143162109939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066970738207348</v>
+        <v>1.039034204028548</v>
       </c>
       <c r="D2">
-        <v>1.070036877672472</v>
+        <v>1.052675844790786</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.07865182360091</v>
+        <v>1.054849868468596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05298346427525</v>
+        <v>1.059695586440306</v>
       </c>
       <c r="J2">
-        <v>1.071918021215107</v>
+        <v>1.060106952124272</v>
       </c>
       <c r="K2">
-        <v>1.072737785842959</v>
+        <v>1.063447041557324</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.081329935659295</v>
+        <v>1.065594501236546</v>
       </c>
       <c r="N2">
-        <v>1.073440267755948</v>
+        <v>1.061612425592255</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068253724991089</v>
+        <v>1.045449554995173</v>
       </c>
       <c r="D3">
-        <v>1.071091080070438</v>
+        <v>1.05787073462974</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.079898811873038</v>
+        <v>1.060817577600018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053392705478733</v>
+        <v>1.062111723052311</v>
       </c>
       <c r="J3">
-        <v>1.072855629750853</v>
+        <v>1.064773491720056</v>
       </c>
       <c r="K3">
-        <v>1.073607684049577</v>
+        <v>1.067813057800411</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.082393801327244</v>
+        <v>1.070727217214857</v>
       </c>
       <c r="N3">
-        <v>1.07437920780336</v>
+        <v>1.066285592209525</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069083121575856</v>
+        <v>1.049490275976134</v>
       </c>
       <c r="D4">
-        <v>1.071772494408561</v>
+        <v>1.061145226359315</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.080705345145767</v>
+        <v>1.06458244017821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053655888916688</v>
+        <v>1.063622908747004</v>
       </c>
       <c r="J4">
-        <v>1.073461014817454</v>
+        <v>1.067707481799642</v>
       </c>
       <c r="K4">
-        <v>1.074169237580649</v>
+        <v>1.070557710478016</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.083081274513331</v>
+        <v>1.073959222296397</v>
       </c>
       <c r="N4">
-        <v>1.074985452586195</v>
+        <v>1.069223748891557</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069431616112836</v>
+        <v>1.051163825725171</v>
       </c>
       <c r="D5">
-        <v>1.072058789488358</v>
+        <v>1.06250195418828</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.081044330164534</v>
+        <v>1.066143141913358</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053766143787549</v>
+        <v>1.064246204979008</v>
       </c>
       <c r="J5">
-        <v>1.073715207274682</v>
+        <v>1.068921355241585</v>
       </c>
       <c r="K5">
-        <v>1.07440499858878</v>
+        <v>1.071693144795944</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.083370070573069</v>
+        <v>1.075297568710323</v>
       </c>
       <c r="N5">
-        <v>1.075240006025868</v>
+        <v>1.070439346173021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069490119198659</v>
+        <v>1.051443381409352</v>
       </c>
       <c r="D6">
-        <v>1.072106849695111</v>
+        <v>1.062728615986599</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.081101242532551</v>
+        <v>1.066403928080787</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053784633377352</v>
+        <v>1.0643501688382</v>
       </c>
       <c r="J6">
-        <v>1.073757869110657</v>
+        <v>1.069124047270701</v>
       </c>
       <c r="K6">
-        <v>1.07444456542184</v>
+        <v>1.071882732598167</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.083418548006338</v>
+        <v>1.075521114244302</v>
       </c>
       <c r="N6">
-        <v>1.075282728446543</v>
+        <v>1.070642326048068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069087778894908</v>
+        <v>1.049512735314494</v>
       </c>
       <c r="D7">
-        <v>1.071776320568747</v>
+        <v>1.061163431887683</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.080709874997467</v>
+        <v>1.064603379592315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053657363668702</v>
+        <v>1.063631283809321</v>
       </c>
       <c r="J7">
-        <v>1.073464412570366</v>
+        <v>1.067723777398964</v>
       </c>
       <c r="K7">
-        <v>1.074172389070317</v>
+        <v>1.070572953504396</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.083085134272775</v>
+        <v>1.073977184229543</v>
       </c>
       <c r="N7">
-        <v>1.074988855164305</v>
+        <v>1.0692400676325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06740449345947</v>
+        <v>1.041225963440239</v>
       </c>
       <c r="D8">
-        <v>1.070393301703813</v>
+        <v>1.05445007741235</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.07907332347059</v>
+        <v>1.056887375736692</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053122105969192</v>
+        <v>1.060523251872893</v>
       </c>
       <c r="J8">
-        <v>1.072235163099385</v>
+        <v>1.061702318485415</v>
       </c>
       <c r="K8">
-        <v>1.073032048362555</v>
+        <v>1.064939741846927</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.08168966575464</v>
+        <v>1.067348201682216</v>
       </c>
       <c r="N8">
-        <v>1.073757860018079</v>
+        <v>1.063210057556622</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064432192794945</v>
+        <v>1.025715542335062</v>
       </c>
       <c r="D9">
-        <v>1.067950598371751</v>
+        <v>1.041908042509194</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.076186701952599</v>
+        <v>1.042497295299222</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052166433831301</v>
+        <v>1.05462238834474</v>
       </c>
       <c r="J9">
-        <v>1.070058930303432</v>
+        <v>1.050391792301195</v>
       </c>
       <c r="K9">
-        <v>1.071012354709842</v>
+        <v>1.054355908726585</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.07922352729879</v>
+        <v>1.054936558751577</v>
       </c>
       <c r="N9">
-        <v>1.071578536721938</v>
+        <v>1.051883469127886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062446320985135</v>
+        <v>1.01466865845849</v>
       </c>
       <c r="D10">
-        <v>1.066318198587601</v>
+        <v>1.032996486667323</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.074260233941584</v>
+        <v>1.032288287970899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05152085783055</v>
+        <v>1.050366026425315</v>
       </c>
       <c r="J10">
-        <v>1.068601146690097</v>
+        <v>1.042312138623922</v>
       </c>
       <c r="K10">
-        <v>1.069658859786115</v>
+        <v>1.046794484868047</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.077574480908121</v>
+        <v>1.046098053040712</v>
       </c>
       <c r="N10">
-        <v>1.070118682888662</v>
+        <v>1.043792341415642</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061585339766081</v>
+        <v>1.009693131760269</v>
       </c>
       <c r="D11">
-        <v>1.065610388511377</v>
+        <v>1.028989052255436</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.073425527344039</v>
+        <v>1.027700774049386</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051239293263149</v>
+        <v>1.0484370000828</v>
       </c>
       <c r="J11">
-        <v>1.067968226015355</v>
+        <v>1.038668151799958</v>
       </c>
       <c r="K11">
-        <v>1.069071084114488</v>
+        <v>1.043384229441425</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.076859216352319</v>
+        <v>1.042118541919916</v>
       </c>
       <c r="N11">
-        <v>1.069484863393964</v>
+        <v>1.040143179712416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061265365683326</v>
+        <v>1.007813769909377</v>
       </c>
       <c r="D12">
-        <v>1.065347327836501</v>
+        <v>1.027476434712155</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.073115396698421</v>
+        <v>1.025969678637024</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051134401819372</v>
+        <v>1.047706641724781</v>
       </c>
       <c r="J12">
-        <v>1.067732874136901</v>
+        <v>1.037291079299091</v>
       </c>
       <c r="K12">
-        <v>1.068852499507622</v>
+        <v>1.04209550559035</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.076593349423566</v>
+        <v>1.040615698205422</v>
       </c>
       <c r="N12">
-        <v>1.069249177288848</v>
+        <v>1.038764151610646</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06133400884994</v>
+        <v>1.008218353388567</v>
       </c>
       <c r="D13">
-        <v>1.065403762008165</v>
+        <v>1.027802015919413</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.073181924604732</v>
+        <v>1.026342264897313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051156915252922</v>
+        <v>1.047863947740212</v>
       </c>
       <c r="J13">
-        <v>1.067783369589104</v>
+        <v>1.037587559993022</v>
       </c>
       <c r="K13">
-        <v>1.068899398390177</v>
+        <v>1.042372963728907</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.076650387240388</v>
+        <v>1.040939210676951</v>
       </c>
       <c r="N13">
-        <v>1.069299744450385</v>
+        <v>1.039061053341169</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061558894046398</v>
+        <v>1.009538434780844</v>
       </c>
       <c r="D14">
-        <v>1.065588646879111</v>
+        <v>1.028864520741485</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.073399893569844</v>
+        <v>1.027558246136774</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051230629150918</v>
+        <v>1.04837691623194</v>
       </c>
       <c r="J14">
-        <v>1.067948777014626</v>
+        <v>1.038554813015356</v>
       </c>
       <c r="K14">
-        <v>1.069053021132331</v>
+        <v>1.043278161571643</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.076837243517516</v>
+        <v>1.041994830771572</v>
       </c>
       <c r="N14">
-        <v>1.069465386773423</v>
+        <v>1.04002967997374</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061697430939613</v>
+        <v>1.010347567211088</v>
       </c>
       <c r="D15">
-        <v>1.065702540790619</v>
+        <v>1.029515919177602</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.073534180285078</v>
+        <v>1.02830379911371</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05127600614758</v>
+        <v>1.048691111192408</v>
       </c>
       <c r="J15">
-        <v>1.068050655850765</v>
+        <v>1.039147597671354</v>
       </c>
       <c r="K15">
-        <v>1.069147638834459</v>
+        <v>1.04383291885405</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.076952347121778</v>
+        <v>1.04264190672451</v>
       </c>
       <c r="N15">
-        <v>1.069567410289196</v>
+        <v>1.040623306451943</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062503438240475</v>
+        <v>1.014994623641059</v>
       </c>
       <c r="D16">
-        <v>1.066365152937118</v>
+        <v>1.033259170076213</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.074315619150292</v>
+        <v>1.032589062360645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051539501535894</v>
+        <v>1.050492162081531</v>
       </c>
       <c r="J16">
-        <v>1.068643115677784</v>
+        <v>1.042550774197265</v>
       </c>
       <c r="K16">
-        <v>1.06969783240805</v>
+        <v>1.047017815723951</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.077621924769208</v>
+        <v>1.046358801765348</v>
       </c>
       <c r="N16">
-        <v>1.070160711477126</v>
+        <v>1.044031315878871</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063008731700154</v>
+        <v>1.017856566978432</v>
       </c>
       <c r="D17">
-        <v>1.066780530354065</v>
+        <v>1.035566236257875</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.074805649991491</v>
+        <v>1.035231047797497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051704241813211</v>
+        <v>1.051598276593173</v>
       </c>
       <c r="J17">
-        <v>1.069014295339413</v>
+        <v>1.044645425552007</v>
       </c>
       <c r="K17">
-        <v>1.07004249638976</v>
+        <v>1.048978131044855</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.078041605275866</v>
+        <v>1.048648315523982</v>
       </c>
       <c r="N17">
-        <v>1.070532418256449</v>
+        <v>1.046128941878796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063303356366738</v>
+        <v>1.019507522645477</v>
       </c>
       <c r="D18">
-        <v>1.067022719550443</v>
+        <v>1.036897691307092</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.075091425468398</v>
+        <v>1.036756111725335</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051800136659307</v>
+        <v>1.052235223935831</v>
       </c>
       <c r="J18">
-        <v>1.06923063522377</v>
+        <v>1.045853289878947</v>
       </c>
       <c r="K18">
-        <v>1.070243368881202</v>
+        <v>1.050108530698417</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.078286280639664</v>
+        <v>1.049969177821257</v>
       </c>
       <c r="N18">
-        <v>1.070749065368256</v>
+        <v>1.047338521511624</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063403798173076</v>
+        <v>1.02006740797967</v>
       </c>
       <c r="D19">
-        <v>1.067105284043581</v>
+        <v>1.037349321423053</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.075188858933012</v>
+        <v>1.037273469259599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051832801229262</v>
+        <v>1.052451036620019</v>
       </c>
       <c r="J19">
-        <v>1.069304373985883</v>
+        <v>1.046262829139478</v>
       </c>
       <c r="K19">
-        <v>1.070311833441339</v>
+        <v>1.05049180402567</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.078369688832313</v>
+        <v>1.0504171370788</v>
       </c>
       <c r="N19">
-        <v>1.070822908847869</v>
+        <v>1.04774864236488</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062954529330654</v>
+        <v>1.017551423616953</v>
       </c>
       <c r="D20">
-        <v>1.066735973972424</v>
+        <v>1.035320192481247</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.074753079643388</v>
+        <v>1.034949252552432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051686586959753</v>
+        <v>1.051480458581233</v>
       </c>
       <c r="J20">
-        <v>1.068974488149763</v>
+        <v>1.044422139681078</v>
       </c>
       <c r="K20">
-        <v>1.070005534208099</v>
+        <v>1.048769165092602</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.077996589672506</v>
+        <v>1.048404191926668</v>
       </c>
       <c r="N20">
-        <v>1.070492554536023</v>
+        <v>1.045905338916319</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061492675614078</v>
+        <v>1.00915058607784</v>
       </c>
       <c r="D21">
-        <v>1.06553420701406</v>
+        <v>1.028552319156539</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.073335709472872</v>
+        <v>1.027200934952483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051208930699293</v>
+        <v>1.048226249455246</v>
       </c>
       <c r="J21">
-        <v>1.067900075767521</v>
+        <v>1.038270645181991</v>
       </c>
       <c r="K21">
-        <v>1.069007790222194</v>
+        <v>1.04301222409372</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.076782224155422</v>
+        <v>1.041684673434782</v>
       </c>
       <c r="N21">
-        <v>1.069416616364961</v>
+        <v>1.039745108589457</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060572579979888</v>
+        <v>1.003686592837638</v>
       </c>
       <c r="D22">
-        <v>1.064777747903295</v>
+        <v>1.024156775309713</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.072444068110515</v>
+        <v>1.022171375439927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050906839103629</v>
+        <v>1.046099643772149</v>
       </c>
       <c r="J22">
-        <v>1.067223061905572</v>
+        <v>1.034265825986532</v>
       </c>
       <c r="K22">
-        <v>1.068378971765368</v>
+        <v>1.039264405340464</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.07601762770704</v>
+        <v>1.03731604724335</v>
       </c>
       <c r="N22">
-        <v>1.068738641065675</v>
+        <v>1.035734602091381</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061060433459628</v>
+        <v>1.006601274464752</v>
       </c>
       <c r="D23">
-        <v>1.06517884367548</v>
+        <v>1.026500868726786</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.072916791108263</v>
+        <v>1.024853334533737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051067151852058</v>
+        <v>1.047234964794877</v>
       </c>
       <c r="J23">
-        <v>1.067582101808917</v>
+        <v>1.036402466091132</v>
       </c>
       <c r="K23">
-        <v>1.06871246312632</v>
+        <v>1.041263911573799</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.076423057825709</v>
+        <v>1.03964621658043</v>
       </c>
       <c r="N23">
-        <v>1.069098190846864</v>
+        <v>1.037874276470006</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062979021370911</v>
+        <v>1.017689361353331</v>
       </c>
       <c r="D24">
-        <v>1.066756107371996</v>
+        <v>1.035431412880953</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.074776834079021</v>
+        <v>1.03507663287126</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051694565031709</v>
+        <v>1.051533720836578</v>
       </c>
       <c r="J24">
-        <v>1.068992475808626</v>
+        <v>1.044523075817525</v>
       </c>
       <c r="K24">
-        <v>1.070022236334184</v>
+        <v>1.048863627929425</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.078016930647963</v>
+        <v>1.048514545773063</v>
       </c>
       <c r="N24">
-        <v>1.070510567739425</v>
+        <v>1.046006418393657</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065201352768578</v>
+        <v>1.029842290565338</v>
       </c>
       <c r="D25">
-        <v>1.068582778715761</v>
+        <v>1.045241794229644</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.076933312610243</v>
+        <v>1.046319487187717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05241498414026</v>
+        <v>1.056201785545299</v>
       </c>
       <c r="J25">
-        <v>1.070622754995698</v>
+        <v>1.053405452444039</v>
       </c>
       <c r="K25">
-        <v>1.071535723946969</v>
+        <v>1.05717615922046</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.079861945318173</v>
+        <v>1.058238919584681</v>
       </c>
       <c r="N25">
-        <v>1.072143162109939</v>
+        <v>1.054901409013804</v>
       </c>
     </row>
   </sheetData>
